--- a/Code/Results/Cases/Case_1_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.25836880326734</v>
+        <v>7.783482801709658</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.560883405099733</v>
+        <v>3.927836968117492</v>
       </c>
       <c r="E2">
-        <v>29.8899289919766</v>
+        <v>16.57547603266558</v>
       </c>
       <c r="F2">
-        <v>14.48524422843501</v>
+        <v>18.86300847045873</v>
       </c>
       <c r="G2">
-        <v>16.8235608482815</v>
+        <v>19.49503046825303</v>
       </c>
       <c r="H2">
-        <v>6.927347604518713</v>
+        <v>11.90160245558593</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.66255463262556</v>
+        <v>12.99559702752478</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.85416712808988</v>
+        <v>16.87606019416074</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.899842418756981</v>
+        <v>7.710554446013313</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.35238501166946</v>
+        <v>3.842835098026128</v>
       </c>
       <c r="E3">
-        <v>27.73056052622191</v>
+        <v>15.63098910006513</v>
       </c>
       <c r="F3">
-        <v>14.08613676149887</v>
+        <v>18.89903405192173</v>
       </c>
       <c r="G3">
-        <v>16.23062538508324</v>
+        <v>19.53550223441135</v>
       </c>
       <c r="H3">
-        <v>6.998488015775975</v>
+        <v>11.95889704294781</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.58980449340579</v>
+        <v>12.46118444306538</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.82404043745155</v>
+        <v>16.96421746401018</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.673308143440461</v>
+        <v>7.66726960309127</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.218716250835727</v>
+        <v>3.78918522582065</v>
       </c>
       <c r="E4">
-        <v>26.34033848695684</v>
+        <v>15.02568019808862</v>
       </c>
       <c r="F4">
-        <v>13.85835605427814</v>
+        <v>18.9286428217236</v>
       </c>
       <c r="G4">
-        <v>15.89578346880255</v>
+        <v>19.5717630050552</v>
       </c>
       <c r="H4">
-        <v>7.049607630467738</v>
+        <v>11.99667619489057</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.89923084246355</v>
+        <v>12.11948367569278</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.82382308497076</v>
+        <v>17.0238138743887</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57951315654781</v>
+        <v>7.650025995242809</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.162867141284457</v>
+        <v>3.766974796303285</v>
       </c>
       <c r="E5">
-        <v>25.75732929954816</v>
+        <v>14.77289448169157</v>
       </c>
       <c r="F5">
-        <v>13.76990107275968</v>
+        <v>18.94258193792209</v>
       </c>
       <c r="G5">
-        <v>15.76673797176099</v>
+        <v>19.58938373818484</v>
       </c>
       <c r="H5">
-        <v>7.072208096069896</v>
+        <v>12.01272431768255</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.60993961577104</v>
+        <v>11.97696763192751</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.82808718185746</v>
+        <v>17.04946743714767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.563853310672751</v>
+        <v>7.647187146867876</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.153511607096936</v>
+        <v>3.763266350665093</v>
       </c>
       <c r="E6">
-        <v>25.65951716353126</v>
+        <v>14.73055898290164</v>
       </c>
       <c r="F6">
-        <v>13.75547726341468</v>
+        <v>18.94500934839397</v>
       </c>
       <c r="G6">
-        <v>15.7457580187894</v>
+        <v>19.59248063239569</v>
       </c>
       <c r="H6">
-        <v>7.076064854652567</v>
+        <v>12.01542849598073</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.56143227592633</v>
+        <v>11.95310996963455</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.82905086270492</v>
+        <v>17.05380957315531</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.672049000985007</v>
+        <v>7.667035423556799</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.217968567789501</v>
+        <v>3.788887069965469</v>
       </c>
       <c r="E7">
-        <v>26.33254294068282</v>
+        <v>15.02229541881497</v>
       </c>
       <c r="F7">
-        <v>13.85714541917402</v>
+        <v>18.9288232385675</v>
       </c>
       <c r="G7">
-        <v>15.89401309292975</v>
+        <v>19.57198916411369</v>
       </c>
       <c r="H7">
-        <v>7.049905396608878</v>
+        <v>11.99688998359308</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.89536103355855</v>
+        <v>12.11757469362879</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.82386329559811</v>
+        <v>17.02415431992766</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.136147461677841</v>
+        <v>7.758039216721575</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.49018916191585</v>
+        <v>3.898842101859296</v>
       </c>
       <c r="E8">
-        <v>29.15855175236509</v>
+        <v>16.2552312509162</v>
       </c>
       <c r="F8">
-        <v>14.34406740846401</v>
+        <v>18.87387022229164</v>
       </c>
       <c r="G8">
-        <v>16.61309954932241</v>
+        <v>19.50660259741881</v>
       </c>
       <c r="H8">
-        <v>6.950269727769058</v>
+        <v>11.92081739058325</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.2993668006353</v>
+        <v>12.81422711096848</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.83984083809132</v>
+        <v>16.90531767221484</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.990843801310195</v>
+        <v>7.947446087135011</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.977664829622555</v>
+        <v>4.102111626430481</v>
       </c>
       <c r="E9">
-        <v>34.20411714405666</v>
+        <v>18.57332170634794</v>
       </c>
       <c r="F9">
-        <v>15.43409858084222</v>
+        <v>18.82590900322502</v>
       </c>
       <c r="G9">
-        <v>18.25069389977208</v>
+        <v>19.46988510510188</v>
       </c>
       <c r="H9">
-        <v>6.81878271536245</v>
+        <v>11.79231418829604</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.79494602369911</v>
+        <v>14.067396117934</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.02663479395157</v>
+        <v>16.71598489612077</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.625960936148621</v>
+        <v>8.092034607590193</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.305961017019806</v>
+        <v>4.242959468758587</v>
       </c>
       <c r="E10">
-        <v>37.63040297159285</v>
+        <v>20.22245640928284</v>
       </c>
       <c r="F10">
-        <v>16.31425907845578</v>
+        <v>18.82755751252365</v>
       </c>
       <c r="G10">
-        <v>19.58533603788574</v>
+        <v>19.49976252700736</v>
       </c>
       <c r="H10">
-        <v>6.768280515585401</v>
+        <v>11.71056888348474</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.46742608904531</v>
+        <v>14.913304554876</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.27192747089052</v>
+        <v>16.60396359196894</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.936356223301358</v>
+        <v>8.158720072608922</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.448597415224413</v>
+        <v>4.305009166177397</v>
       </c>
       <c r="E11">
-        <v>39.13354539120052</v>
+        <v>20.93019459660107</v>
       </c>
       <c r="F11">
-        <v>16.73121013602303</v>
+        <v>18.83637817569645</v>
       </c>
       <c r="G11">
-        <v>20.21952749568653</v>
+        <v>19.52584918046143</v>
       </c>
       <c r="H11">
-        <v>6.756987922031469</v>
+        <v>11.67614505505422</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.19299613957524</v>
+        <v>15.28092631359639</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.40950685761853</v>
+        <v>16.5589745391402</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.051477413505761</v>
+        <v>8.18408033117853</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.501631771332923</v>
+        <v>4.328201259223694</v>
       </c>
       <c r="E12">
-        <v>39.69526625439202</v>
+        <v>21.19212706694419</v>
       </c>
       <c r="F12">
-        <v>16.89143264525226</v>
+        <v>18.8408814567659</v>
       </c>
       <c r="G12">
-        <v>20.46346766390425</v>
+        <v>19.53753050473295</v>
       </c>
       <c r="H12">
-        <v>6.754538001784688</v>
+        <v>11.66350815499261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.46268075732825</v>
+        <v>15.41759938368531</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.46552678113329</v>
+        <v>16.54280425090584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.026791089805526</v>
+        <v>8.178614113369905</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.490253604708213</v>
+        <v>4.323220192076574</v>
       </c>
       <c r="E13">
-        <v>39.57461415106823</v>
+        <v>21.13598477678402</v>
       </c>
       <c r="F13">
-        <v>16.85682275872992</v>
+        <v>18.83985984284857</v>
       </c>
       <c r="G13">
-        <v>20.41076371944898</v>
+        <v>19.53493448646974</v>
       </c>
       <c r="H13">
-        <v>6.754982009533382</v>
+        <v>11.66621198439661</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.40482484796826</v>
+        <v>15.3882781796932</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.45328472392093</v>
+        <v>16.54624817257637</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.945875612337064</v>
+        <v>8.160804445673659</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.452980273176943</v>
+        <v>4.306923377677229</v>
       </c>
       <c r="E14">
-        <v>39.17990552995248</v>
+        <v>20.95186545313132</v>
       </c>
       <c r="F14">
-        <v>16.744345226627</v>
+        <v>18.83672534457738</v>
       </c>
       <c r="G14">
-        <v>20.23952121003905</v>
+        <v>19.52677405764848</v>
       </c>
       <c r="H14">
-        <v>6.756748901511454</v>
+        <v>11.67509741182964</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.2152848858325</v>
+        <v>15.29222168143801</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.41403606222145</v>
+        <v>16.55762679898997</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.895998462899913</v>
+        <v>8.149908879094562</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.430021426137106</v>
+        <v>4.296901022688565</v>
       </c>
       <c r="E15">
-        <v>38.93717567943958</v>
+        <v>20.83829720037266</v>
       </c>
       <c r="F15">
-        <v>16.67575199981549</v>
+        <v>18.83495688976038</v>
       </c>
       <c r="G15">
-        <v>20.1351206898545</v>
+        <v>19.52201045662056</v>
       </c>
       <c r="H15">
-        <v>6.75807347333151</v>
+        <v>11.68059195189501</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.09852571533433</v>
+        <v>15.23305209177127</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.39051100060898</v>
+        <v>16.56470955008205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.605335738012119</v>
+        <v>8.087692915978643</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.296503105418968</v>
+        <v>4.238862457988723</v>
       </c>
       <c r="E16">
-        <v>37.53109340256526</v>
+        <v>20.17535247181081</v>
       </c>
       <c r="F16">
-        <v>16.28733906894056</v>
+        <v>18.82714371771516</v>
       </c>
       <c r="G16">
-        <v>19.54442485805502</v>
+        <v>19.49830975252567</v>
       </c>
       <c r="H16">
-        <v>6.769265958297578</v>
+        <v>11.71287427042452</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.41929829408941</v>
+        <v>14.88892789603399</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.26347548471255</v>
+        <v>16.60702451786848</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.422682871148497</v>
+        <v>8.049742392347897</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.212864576043245</v>
+        <v>4.202729359443217</v>
       </c>
       <c r="E17">
-        <v>36.65462930784524</v>
+        <v>19.75780571246779</v>
       </c>
       <c r="F17">
-        <v>16.05326278710835</v>
+        <v>18.8244200035238</v>
       </c>
       <c r="G17">
-        <v>19.18889725503282</v>
+        <v>19.48697610001364</v>
       </c>
       <c r="H17">
-        <v>6.779226335014895</v>
+        <v>11.73338696860096</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.993577180263</v>
+        <v>14.67336668397417</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.19233706349702</v>
+        <v>16.63451789977459</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.324311239071811</v>
+        <v>8.028001427017495</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.164127203618249</v>
+        <v>4.181756931850781</v>
       </c>
       <c r="E18">
-        <v>36.14525473776614</v>
+        <v>19.51364521165783</v>
       </c>
       <c r="F18">
-        <v>15.92018945448172</v>
+        <v>18.82361300154592</v>
       </c>
       <c r="G18">
-        <v>18.98695851238731</v>
+        <v>19.48163329230585</v>
       </c>
       <c r="H18">
-        <v>6.786045588566471</v>
+        <v>11.74544526532587</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.74539482304597</v>
+        <v>14.54776714125132</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.15385695589361</v>
+        <v>16.65089284357887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.294476888767814</v>
+        <v>8.020655987736426</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.147517745295578</v>
+        <v>4.174623902391036</v>
       </c>
       <c r="E19">
-        <v>35.97187241956303</v>
+        <v>19.43028887148446</v>
       </c>
       <c r="F19">
-        <v>15.87540296816145</v>
+        <v>18.8234701247004</v>
       </c>
       <c r="G19">
-        <v>18.91902743506975</v>
+        <v>19.48002603786005</v>
       </c>
       <c r="H19">
-        <v>6.788537366725069</v>
+        <v>11.74957259910874</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.66079495711488</v>
+        <v>14.50496619892317</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.14124091262076</v>
+        <v>16.65653331838995</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.442292458938578</v>
+        <v>8.053773436262764</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.221833432129184</v>
+        <v>4.20659551929297</v>
       </c>
       <c r="E20">
-        <v>36.74847093598114</v>
+        <v>19.80266788109809</v>
       </c>
       <c r="F20">
-        <v>16.07801943653939</v>
+        <v>18.82463130774111</v>
       </c>
       <c r="G20">
-        <v>19.22648058746006</v>
+        <v>19.48806081697508</v>
       </c>
       <c r="H20">
-        <v>6.778052150795999</v>
+        <v>11.73117644439457</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.03923949414735</v>
+        <v>14.69648114228991</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.19965628438135</v>
+        <v>16.63153301587342</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.969707848855849</v>
+        <v>8.166032831816938</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.463955019848461</v>
+        <v>4.311718524199269</v>
       </c>
       <c r="E21">
-        <v>39.29604000519394</v>
+        <v>21.00611030668861</v>
       </c>
       <c r="F21">
-        <v>16.77731962766166</v>
+        <v>18.83761444467027</v>
       </c>
       <c r="G21">
-        <v>20.28971721199107</v>
+        <v>19.52912201598391</v>
       </c>
       <c r="H21">
-        <v>6.756179157404106</v>
+        <v>11.6724767155978</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.27109499103532</v>
+        <v>15.32050513909528</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.42545653234921</v>
+        <v>16.55426105522469</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.300320593789252</v>
+        <v>8.240019237801564</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.616485162397999</v>
+        <v>4.378640308679356</v>
       </c>
       <c r="E22">
-        <v>40.91765557430639</v>
+        <v>21.75724889708506</v>
       </c>
       <c r="F22">
-        <v>17.24793558404848</v>
+        <v>18.85287907342289</v>
       </c>
       <c r="G22">
-        <v>21.06093521084057</v>
+        <v>19.56646630885645</v>
       </c>
       <c r="H22">
-        <v>6.75260146263916</v>
+        <v>11.63643740056553</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.0466248984441</v>
+        <v>15.71352802281823</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.59596207448993</v>
+        <v>16.50881102057602</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.125144778854025</v>
+        <v>8.200482331225208</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.535603305109224</v>
+        <v>4.343090275585697</v>
       </c>
       <c r="E23">
-        <v>40.05595960714291</v>
+        <v>21.35957848548738</v>
       </c>
       <c r="F23">
-        <v>16.99552827801923</v>
+        <v>18.84411131966831</v>
       </c>
       <c r="G23">
-        <v>20.63231516667895</v>
+        <v>19.54557249857464</v>
       </c>
       <c r="H23">
-        <v>6.753480284955869</v>
+        <v>11.65545910968157</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.63541139890966</v>
+        <v>15.5051388357382</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.50280525837376</v>
+        <v>16.53260385615031</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.433432113306795</v>
+        <v>8.051950758783608</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.217780643448266</v>
+        <v>4.204848247272122</v>
       </c>
       <c r="E24">
-        <v>36.706062252925</v>
+        <v>19.78239849112612</v>
       </c>
       <c r="F24">
-        <v>16.06682227843839</v>
+        <v>18.82453341334368</v>
       </c>
       <c r="G24">
-        <v>19.20948149572999</v>
+        <v>19.48756676286772</v>
       </c>
       <c r="H24">
-        <v>6.778579606374582</v>
+        <v>11.73217499614131</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.0186062440079</v>
+        <v>14.68603629398421</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.19633974620132</v>
+        <v>16.63288071113758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.766130847662549</v>
+        <v>7.895161252534678</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.850937851942419</v>
+        <v>4.048548186874972</v>
       </c>
       <c r="E25">
-        <v>32.89014131934351</v>
+        <v>17.92813771648611</v>
       </c>
       <c r="F25">
-        <v>15.12504269693062</v>
+        <v>18.83243168341431</v>
       </c>
       <c r="G25">
-        <v>17.7840306926925</v>
+        <v>19.46989703513598</v>
       </c>
       <c r="H25">
-        <v>6.846800374485881</v>
+        <v>11.82485802609753</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.14791969884994</v>
+        <v>13.74114521941061</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.95803390852278</v>
+        <v>16.76247993368605</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.783482801709658</v>
+        <v>7.258368803267359</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.927836968117492</v>
+        <v>4.560883405099739</v>
       </c>
       <c r="E2">
-        <v>16.57547603266558</v>
+        <v>29.88992899197665</v>
       </c>
       <c r="F2">
-        <v>18.86300847045873</v>
+        <v>14.48524422843497</v>
       </c>
       <c r="G2">
-        <v>19.49503046825303</v>
+        <v>16.82356084828139</v>
       </c>
       <c r="H2">
-        <v>11.90160245558593</v>
+        <v>6.927347604518704</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.99559702752478</v>
+        <v>19.66255463262556</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.87606019416074</v>
+        <v>10.85416712808981</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.710554446013313</v>
+        <v>6.899842418756981</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.842835098026128</v>
+        <v>4.352385011669515</v>
       </c>
       <c r="E3">
-        <v>15.63098910006513</v>
+        <v>27.73056052622191</v>
       </c>
       <c r="F3">
-        <v>18.89903405192173</v>
+        <v>14.08613676149879</v>
       </c>
       <c r="G3">
-        <v>19.53550223441135</v>
+        <v>16.23062538508315</v>
       </c>
       <c r="H3">
-        <v>11.95889704294781</v>
+        <v>6.998488015775969</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.46118444306538</v>
+        <v>18.58980449340579</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.96421746401018</v>
+        <v>10.82404043745151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.66726960309127</v>
+        <v>6.673308143440424</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.78918522582065</v>
+        <v>4.21871625083574</v>
       </c>
       <c r="E4">
-        <v>15.02568019808862</v>
+        <v>26.34033848695686</v>
       </c>
       <c r="F4">
-        <v>18.9286428217236</v>
+        <v>13.85835605427804</v>
       </c>
       <c r="G4">
-        <v>19.5717630050552</v>
+        <v>15.89578346880249</v>
       </c>
       <c r="H4">
-        <v>11.99667619489057</v>
+        <v>7.049607630467566</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.11948367569278</v>
+        <v>17.89923084246356</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.0238138743887</v>
+        <v>10.82382308497065</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.650025995242809</v>
+        <v>6.579513156547827</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.766974796303285</v>
+        <v>4.162867141284546</v>
       </c>
       <c r="E5">
-        <v>14.77289448169157</v>
+        <v>25.75732929954822</v>
       </c>
       <c r="F5">
-        <v>18.94258193792209</v>
+        <v>13.76990107275947</v>
       </c>
       <c r="G5">
-        <v>19.58938373818484</v>
+        <v>15.76673797176094</v>
       </c>
       <c r="H5">
-        <v>12.01272431768255</v>
+        <v>7.072208096069783</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.97696763192751</v>
+        <v>17.60993961577108</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.04946743714767</v>
+        <v>10.82808718185732</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.647187146867876</v>
+        <v>6.563853310672814</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.763266350665093</v>
+        <v>4.15351160709702</v>
       </c>
       <c r="E6">
-        <v>14.73055898290164</v>
+        <v>25.65951716353132</v>
       </c>
       <c r="F6">
-        <v>18.94500934839397</v>
+        <v>13.75547726341456</v>
       </c>
       <c r="G6">
-        <v>19.59248063239569</v>
+        <v>15.74575801878933</v>
       </c>
       <c r="H6">
-        <v>12.01542849598073</v>
+        <v>7.076064854652511</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.95310996963455</v>
+        <v>17.56143227592634</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.05380957315531</v>
+        <v>10.82905086270487</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.667035423556799</v>
+        <v>6.672049000984977</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.788887069965469</v>
+        <v>4.217968567789324</v>
       </c>
       <c r="E7">
-        <v>15.02229541881497</v>
+        <v>26.33254294068282</v>
       </c>
       <c r="F7">
-        <v>18.9288232385675</v>
+        <v>13.85714541917409</v>
       </c>
       <c r="G7">
-        <v>19.57198916411369</v>
+        <v>15.89401309292974</v>
       </c>
       <c r="H7">
-        <v>11.99688998359308</v>
+        <v>7.049905396608884</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.11757469362879</v>
+        <v>17.8953610335586</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.02415431992766</v>
+        <v>10.82386329559811</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.758039216721575</v>
+        <v>7.136147461677808</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.898842101859296</v>
+        <v>4.490189161915726</v>
       </c>
       <c r="E8">
-        <v>16.2552312509162</v>
+        <v>29.15855175236512</v>
       </c>
       <c r="F8">
-        <v>18.87387022229164</v>
+        <v>14.34406740846391</v>
       </c>
       <c r="G8">
-        <v>19.50660259741881</v>
+        <v>16.6130995493223</v>
       </c>
       <c r="H8">
-        <v>11.92081739058325</v>
+        <v>6.950269727768951</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.81422711096848</v>
+        <v>19.29936680063536</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.90531767221484</v>
+        <v>10.83984083809117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.947446087135011</v>
+        <v>7.990843801310208</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.102111626430481</v>
+        <v>4.977664829622625</v>
       </c>
       <c r="E9">
-        <v>18.57332170634794</v>
+        <v>34.20411714405672</v>
       </c>
       <c r="F9">
-        <v>18.82590900322502</v>
+        <v>15.43409858084213</v>
       </c>
       <c r="G9">
-        <v>19.46988510510188</v>
+        <v>18.25069389977197</v>
       </c>
       <c r="H9">
-        <v>11.79231418829604</v>
+        <v>6.818782715362394</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.067396117934</v>
+        <v>21.79494602369909</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.71598489612077</v>
+        <v>11.0266347939515</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.092034607590193</v>
+        <v>8.625960936148612</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.242959468758587</v>
+        <v>5.305961017019873</v>
       </c>
       <c r="E10">
-        <v>20.22245640928284</v>
+        <v>37.63040297159282</v>
       </c>
       <c r="F10">
-        <v>18.82755751252365</v>
+        <v>16.31425907845575</v>
       </c>
       <c r="G10">
-        <v>19.49976252700736</v>
+        <v>19.58533603788573</v>
       </c>
       <c r="H10">
-        <v>11.71056888348474</v>
+        <v>6.768280515585393</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.913304554876</v>
+        <v>23.4674260890454</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.60396359196894</v>
+        <v>11.27192747089045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.158720072608922</v>
+        <v>8.93635622330134</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.305009166177397</v>
+        <v>5.448597415224372</v>
       </c>
       <c r="E11">
-        <v>20.93019459660107</v>
+        <v>39.13354539120053</v>
       </c>
       <c r="F11">
-        <v>18.83637817569645</v>
+        <v>16.73121013602302</v>
       </c>
       <c r="G11">
-        <v>19.52584918046143</v>
+        <v>20.21952749568649</v>
       </c>
       <c r="H11">
-        <v>11.67614505505422</v>
+        <v>6.756987922031374</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.28092631359639</v>
+        <v>24.19299613957526</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.5589745391402</v>
+        <v>11.40950685761846</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.18408033117853</v>
+        <v>9.051477413505715</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.328201259223694</v>
+        <v>5.501631771332946</v>
       </c>
       <c r="E12">
-        <v>21.19212706694419</v>
+        <v>39.69526625439205</v>
       </c>
       <c r="F12">
-        <v>18.8408814567659</v>
+        <v>16.89143264525222</v>
       </c>
       <c r="G12">
-        <v>19.53753050473295</v>
+        <v>20.46346766390424</v>
       </c>
       <c r="H12">
-        <v>11.66350815499261</v>
+        <v>6.754538001784558</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.41759938368531</v>
+        <v>24.46268075732828</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.54280425090584</v>
+        <v>11.46552678113322</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.178614113369905</v>
+        <v>9.026791089805609</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.323220192076574</v>
+        <v>5.490253604708318</v>
       </c>
       <c r="E13">
-        <v>21.13598477678402</v>
+        <v>39.57461415106832</v>
       </c>
       <c r="F13">
-        <v>18.83985984284857</v>
+        <v>16.85682275872992</v>
       </c>
       <c r="G13">
-        <v>19.53493448646974</v>
+        <v>20.41076371944899</v>
       </c>
       <c r="H13">
-        <v>11.66621198439661</v>
+        <v>6.754982009533353</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.3882781796932</v>
+        <v>24.40482484796826</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.54624817257637</v>
+        <v>11.45328472392089</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.160804445673659</v>
+        <v>8.945875612337055</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.306923377677229</v>
+        <v>5.452980273176895</v>
       </c>
       <c r="E14">
-        <v>20.95186545313132</v>
+        <v>39.17990552995245</v>
       </c>
       <c r="F14">
-        <v>18.83672534457738</v>
+        <v>16.74434522662701</v>
       </c>
       <c r="G14">
-        <v>19.52677405764848</v>
+        <v>20.23952121003909</v>
       </c>
       <c r="H14">
-        <v>11.67509741182964</v>
+        <v>6.756748901511468</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.29222168143801</v>
+        <v>24.21528488583252</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.55762679898997</v>
+        <v>11.41403606222142</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.149908879094562</v>
+        <v>8.895998462899888</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.296901022688565</v>
+        <v>5.43002142613708</v>
       </c>
       <c r="E15">
-        <v>20.83829720037266</v>
+        <v>38.93717567943947</v>
       </c>
       <c r="F15">
-        <v>18.83495688976038</v>
+        <v>16.67575199981547</v>
       </c>
       <c r="G15">
-        <v>19.52201045662056</v>
+        <v>20.13512068985439</v>
       </c>
       <c r="H15">
-        <v>11.68059195189501</v>
+        <v>6.758073473331547</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.23305209177127</v>
+        <v>24.09852571533434</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.56470955008205</v>
+        <v>11.39051100060897</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.087692915978643</v>
+        <v>8.60533573801213</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.238862457988723</v>
+        <v>5.296503105419024</v>
       </c>
       <c r="E16">
-        <v>20.17535247181081</v>
+        <v>37.53109340256534</v>
       </c>
       <c r="F16">
-        <v>18.82714371771516</v>
+        <v>16.28733906894051</v>
       </c>
       <c r="G16">
-        <v>19.49830975252567</v>
+        <v>19.54442485805496</v>
       </c>
       <c r="H16">
-        <v>11.71287427042452</v>
+        <v>6.769265958297497</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.88892789603399</v>
+        <v>23.41929829408945</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.60702451786848</v>
+        <v>11.26347548471248</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.049742392347897</v>
+        <v>8.422682871148496</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.202729359443217</v>
+        <v>5.212864576043253</v>
       </c>
       <c r="E17">
-        <v>19.75780571246779</v>
+        <v>36.65462930784525</v>
       </c>
       <c r="F17">
-        <v>18.8244200035238</v>
+        <v>16.05326278710831</v>
       </c>
       <c r="G17">
-        <v>19.48697610001364</v>
+        <v>19.18889725503278</v>
       </c>
       <c r="H17">
-        <v>11.73338696860096</v>
+        <v>6.779226335014883</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.67336668397417</v>
+        <v>22.99357718026308</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.63451789977459</v>
+        <v>11.19233706349698</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.028001427017495</v>
+        <v>8.324311239071793</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.181756931850781</v>
+        <v>5.164127203618346</v>
       </c>
       <c r="E18">
-        <v>19.51364521165783</v>
+        <v>36.14525473776622</v>
       </c>
       <c r="F18">
-        <v>18.82361300154592</v>
+        <v>15.92018945448167</v>
       </c>
       <c r="G18">
-        <v>19.48163329230585</v>
+        <v>18.98695851238727</v>
       </c>
       <c r="H18">
-        <v>11.74544526532587</v>
+        <v>6.786045588566321</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.54776714125132</v>
+        <v>22.74539482304601</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.65089284357887</v>
+        <v>11.15385695589353</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.020655987736426</v>
+        <v>8.29447688876785</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.174623902391036</v>
+        <v>5.147517745295685</v>
       </c>
       <c r="E19">
-        <v>19.43028887148446</v>
+        <v>35.97187241956312</v>
       </c>
       <c r="F19">
-        <v>18.8234701247004</v>
+        <v>15.87540296816141</v>
       </c>
       <c r="G19">
-        <v>19.48002603786005</v>
+        <v>18.91902743506975</v>
       </c>
       <c r="H19">
-        <v>11.74957259910874</v>
+        <v>6.788537366725063</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.50496619892317</v>
+        <v>22.66079495711487</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.65653331838995</v>
+        <v>11.14124091262073</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.053773436262764</v>
+        <v>8.442292458938505</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.20659551929297</v>
+        <v>5.221833432129181</v>
       </c>
       <c r="E20">
-        <v>19.80266788109809</v>
+        <v>36.74847093598112</v>
       </c>
       <c r="F20">
-        <v>18.82463130774111</v>
+        <v>16.07801943653933</v>
       </c>
       <c r="G20">
-        <v>19.48806081697508</v>
+        <v>19.22648058746003</v>
       </c>
       <c r="H20">
-        <v>11.73117644439457</v>
+        <v>6.778052150795899</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.69648114228991</v>
+        <v>23.03923949414743</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.63153301587342</v>
+        <v>11.19965628438128</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.166032831816938</v>
+        <v>8.969707848855874</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.311718524199269</v>
+        <v>5.463955019848482</v>
       </c>
       <c r="E21">
-        <v>21.00611030668861</v>
+        <v>39.29604000519397</v>
       </c>
       <c r="F21">
-        <v>18.83761444467027</v>
+        <v>16.77731962766162</v>
       </c>
       <c r="G21">
-        <v>19.52912201598391</v>
+        <v>20.28971721199109</v>
       </c>
       <c r="H21">
-        <v>11.6724767155978</v>
+        <v>6.756179157404099</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.32050513909528</v>
+        <v>24.27109499103543</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.55426105522469</v>
+        <v>11.42545653234913</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.240019237801564</v>
+        <v>9.300320593789243</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.378640308679356</v>
+        <v>5.616485162397959</v>
       </c>
       <c r="E22">
-        <v>21.75724889708506</v>
+        <v>40.91765557430644</v>
       </c>
       <c r="F22">
-        <v>18.85287907342289</v>
+        <v>17.24793558404846</v>
       </c>
       <c r="G22">
-        <v>19.56646630885645</v>
+        <v>21.06093521084063</v>
       </c>
       <c r="H22">
-        <v>11.63643740056553</v>
+        <v>6.752601462639139</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.71352802281823</v>
+        <v>25.04662489844414</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.50881102057602</v>
+        <v>11.5959620744899</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.200482331225208</v>
+        <v>9.125144778854018</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.343090275585697</v>
+        <v>5.535603305109224</v>
       </c>
       <c r="E23">
-        <v>21.35957848548738</v>
+        <v>40.05595960714295</v>
       </c>
       <c r="F23">
-        <v>18.84411131966831</v>
+        <v>16.99552827801923</v>
       </c>
       <c r="G23">
-        <v>19.54557249857464</v>
+        <v>20.63231516667899</v>
       </c>
       <c r="H23">
-        <v>11.65545910968157</v>
+        <v>6.753480284955869</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.5051388357382</v>
+        <v>24.63541139890966</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.53260385615031</v>
+        <v>11.50280525837375</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.051950758783608</v>
+        <v>8.433432113306811</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.204848247272122</v>
+        <v>5.217780643448354</v>
       </c>
       <c r="E24">
-        <v>19.78239849112612</v>
+        <v>36.706062252925</v>
       </c>
       <c r="F24">
-        <v>18.82453341334368</v>
+        <v>16.06682227843839</v>
       </c>
       <c r="G24">
-        <v>19.48756676286772</v>
+        <v>19.20948149573001</v>
       </c>
       <c r="H24">
-        <v>11.73217499614131</v>
+        <v>6.778579606374617</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.68603629398421</v>
+        <v>23.01860624400788</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.63288071113758</v>
+        <v>11.19633974620132</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.895161252534678</v>
+        <v>7.766130847662556</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.048548186874972</v>
+        <v>4.850937851942319</v>
       </c>
       <c r="E25">
-        <v>17.92813771648611</v>
+        <v>32.89014131934353</v>
       </c>
       <c r="F25">
-        <v>18.83243168341431</v>
+        <v>15.12504269693058</v>
       </c>
       <c r="G25">
-        <v>19.46989703513598</v>
+        <v>17.7840306926925</v>
       </c>
       <c r="H25">
-        <v>11.82485802609753</v>
+        <v>6.846800374485835</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.74114521941061</v>
+        <v>21.14791969884997</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.76247993368605</v>
+        <v>10.9580339085227</v>
       </c>
     </row>
   </sheetData>
